--- a/biology/Botanique/Podalyrieae/Podalyrieae.xlsx
+++ b/biology/Botanique/Podalyrieae/Podalyrieae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Podalyrieae sont une tribu de plantes dicotylédones de la famille des Fabaceae, sous-famille des Faboideae, originaire principalement d'Afrique australe, qui compte neuf genres.
-On reconnaît dans cette tribu deux sous-tribus : les Xiphothecinae, groupe monopyhlétique, qui regroupe les genres Amphithalea et Xiphotheca, et les Podalyriinae, groupe paraphylétique qui regroupe  trois clades comprenant respectivement 3, 2 et 1 genres : Liparia/Podalyria/Stirtonanthus, Calpurnia/Virgilia et Cyclopia. Le genre Cadia occupe une place à part. Considéré comme un groupe frère du reste de la tribu, il se distingue notamment par ses fleurs actinomorphes, caractère inhabituel dans la sous-famille des Faboideae[2],[3].
+On reconnaît dans cette tribu deux sous-tribus : les Xiphothecinae, groupe monopyhlétique, qui regroupe les genres Amphithalea et Xiphotheca, et les Podalyriinae, groupe paraphylétique qui regroupe  trois clades comprenant respectivement 3, 2 et 1 genres : Liparia/Podalyria/Stirtonanthus, Calpurnia/Virgilia et Cyclopia. Le genre Cadia occupe une place à part. Considéré comme un groupe frère du reste de la tribu, il se distingue notamment par ses fleurs actinomorphes, caractère inhabituel dans la sous-famille des Faboideae,.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (13 août 2018)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (13 août 2018) :
 Amphithalea Eckl. &amp; Zeyh., 1836
 Cadia Forssk., 1775
 Calpurnia E.Mey., 1835
